--- a/Semester 1/Discrete Wiskunde/oefeningen/Velden/07.xlsx
+++ b/Semester 1/Discrete Wiskunde/oefeningen/Velden/07.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Vanaf slide 1B.31</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>(x118) % 251</t>
+  </si>
+  <si>
+    <t>117x + 5</t>
+  </si>
+  <si>
+    <t>Antwoord:</t>
   </si>
 </sst>
 </file>
@@ -568,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,40 +785,40 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="9">
-        <f>MOD(I2*3,$U$2)</f>
+        <f>MOD(I2*$Y$10,$U$2)</f>
         <v>194</v>
       </c>
       <c r="J4" s="9">
-        <f>MOD(J2*3,$U$2)</f>
+        <f t="shared" ref="J4:R4" si="0">MOD(J2*$Y$10,$U$2)</f>
         <v>136</v>
       </c>
       <c r="K4" s="9">
-        <f>MOD(K2*3,$U$2)</f>
+        <f t="shared" si="0"/>
         <v>167</v>
       </c>
       <c r="L4" s="9">
-        <f>MOD(L2*3,$U$2)</f>
+        <f t="shared" si="0"/>
         <v>222</v>
       </c>
       <c r="M4" s="9">
-        <f>MOD(M2*3,$U$2)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="9">
-        <f>MOD(O2*3,$U$2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P4" s="9">
-        <f>MOD(P2*3,$U$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Q4" s="9">
-        <f>MOD(Q2*3,$U$2)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="R4" s="9">
-        <f>MOD(R2*3,$U$2)</f>
+        <f t="shared" si="0"/>
         <v>208</v>
       </c>
       <c r="S4" s="2"/>
@@ -1422,15 +1428,15 @@
         <v>84</v>
       </c>
       <c r="K13" s="19">
-        <f t="shared" ref="K13:M13" si="0">P2</f>
+        <f t="shared" ref="K13:M13" si="1">P2</f>
         <v>168</v>
       </c>
       <c r="L13" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="M13" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>153</v>
       </c>
       <c r="N13" s="2"/>
@@ -2810,7 +2816,7 @@
         <v>2</v>
       </c>
       <c r="X32" s="1">
-        <f t="shared" ref="X32" si="1">V32*-W32</f>
+        <f t="shared" ref="X32" si="2">V32*-W32</f>
         <v>-2</v>
       </c>
       <c r="Y32" s="15">
@@ -2821,7 +2827,7 @@
         <v>2</v>
       </c>
       <c r="AA32" s="1">
-        <f t="shared" ref="AA32" si="2">Y32*-Z32</f>
+        <f t="shared" ref="AA32" si="3">Y32*-Z32</f>
         <v>-236</v>
       </c>
       <c r="AB32" s="1"/>
@@ -2874,13 +2880,13 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="14">
-        <f t="shared" ref="X33" si="3">X31+X32</f>
+        <f t="shared" ref="X33" si="4">X31+X32</f>
         <v>0</v>
       </c>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="15">
-        <f t="shared" ref="AA33" si="4">AA31+AA32</f>
+        <f t="shared" ref="AA33" si="5">AA31+AA32</f>
         <v>-251</v>
       </c>
       <c r="AB33" s="1"/>
@@ -2974,9 +2980,13 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
+      <c r="J35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="17" t="s">
+        <v>7</v>
+      </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -3027,9 +3037,9 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -3080,9 +3090,9 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -5724,7 +5734,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="V6:AB35 N35:Q38 K7:R34 K39:R42 K35:M38 R35:R38" formula="1"/>
+    <ignoredError sqref="V6:AB9 N35:Q38 K7:R34 K39:R42 K36:M38 R35:R38 V23:AB35 V22:Z22 AB22 V11:AB21 V10:X10 Z10:AB10 K35 M35" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
